--- a/Cork English College - 09 Aug 2025.xlsx
+++ b/Cork English College - 09 Aug 2025.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="LRW" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Speaking" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Invigilator" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="352">
   <si>
     <t xml:space="preserve">Candidate Number</t>
   </si>
@@ -780,6 +781,303 @@
   </si>
   <si>
     <t xml:space="preserve">SPK Room 6</t>
+  </si>
+  <si>
+    <t>Room 2</t>
+  </si>
+  <si>
+    <t>Candidate Number</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>200182806</t>
+  </si>
+  <si>
+    <t>KOCHUPURACKAL ABRAHAM</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>200423555</t>
+  </si>
+  <si>
+    <t>VARGHESE</t>
+  </si>
+  <si>
+    <t>200518762</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>200549396</t>
+  </si>
+  <si>
+    <t>Achandy Pathrose</t>
+  </si>
+  <si>
+    <t>200563582</t>
+  </si>
+  <si>
+    <t>MATHEW</t>
+  </si>
+  <si>
+    <t>200496048</t>
+  </si>
+  <si>
+    <t>200032899</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>200320870</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>200447506</t>
+  </si>
+  <si>
+    <t>Sathiyaseelan</t>
+  </si>
+  <si>
+    <t>200523181</t>
+  </si>
+  <si>
+    <t>JOSEPH</t>
+  </si>
+  <si>
+    <t>200558468</t>
+  </si>
+  <si>
+    <t>PAZHAYATTUPARAMBIL VISHNU</t>
+  </si>
+  <si>
+    <t>200066026</t>
+  </si>
+  <si>
+    <t>AKMAL</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>200407401</t>
+  </si>
+  <si>
+    <t>RAJU</t>
+  </si>
+  <si>
+    <t>200487526</t>
+  </si>
+  <si>
+    <t>PARAMBATH GEORGE</t>
+  </si>
+  <si>
+    <t>200548503</t>
+  </si>
+  <si>
+    <t>SAVITHRI JAYAN</t>
+  </si>
+  <si>
+    <t>Room 4</t>
+  </si>
+  <si>
+    <t>200268212</t>
+  </si>
+  <si>
+    <t>Dafalla</t>
+  </si>
+  <si>
+    <t>200467683</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>200536538</t>
+  </si>
+  <si>
+    <t>Kihaduwage</t>
+  </si>
+  <si>
+    <t>200552372</t>
+  </si>
+  <si>
+    <t>Siddique</t>
+  </si>
+  <si>
+    <t>200563734</t>
+  </si>
+  <si>
+    <t>Amoah</t>
+  </si>
+  <si>
+    <t>200502739</t>
+  </si>
+  <si>
+    <t>EDASSERY</t>
+  </si>
+  <si>
+    <t>200143985</t>
+  </si>
+  <si>
+    <t>DSOUZA</t>
+  </si>
+  <si>
+    <t>200368059</t>
+  </si>
+  <si>
+    <t>UNNIKRISHNAN</t>
+  </si>
+  <si>
+    <t>200519624</t>
+  </si>
+  <si>
+    <t>PALLICKATHAYIL SEBASTIAN</t>
+  </si>
+  <si>
+    <t>200539420</t>
+  </si>
+  <si>
+    <t>OMOBOOGUNJE</t>
+  </si>
+  <si>
+    <t>200563295</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>200159332</t>
+  </si>
+  <si>
+    <t>Kathiresan</t>
+  </si>
+  <si>
+    <t>200410428</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>200538944</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>200548509</t>
+  </si>
+  <si>
+    <t>Room 7</t>
+  </si>
+  <si>
+    <t>200295303</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>200513819</t>
+  </si>
+  <si>
+    <t>Varghese</t>
+  </si>
+  <si>
+    <t>200546822</t>
+  </si>
+  <si>
+    <t>JOUINI</t>
+  </si>
+  <si>
+    <t>200563561</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>200563963</t>
+  </si>
+  <si>
+    <t>SASI</t>
+  </si>
+  <si>
+    <t>200528843</t>
+  </si>
+  <si>
+    <t>200287612</t>
+  </si>
+  <si>
+    <t>DEVASSY</t>
+  </si>
+  <si>
+    <t>200440938</t>
+  </si>
+  <si>
+    <t>200520130</t>
+  </si>
+  <si>
+    <t>Kurian</t>
+  </si>
+  <si>
+    <t>200549123</t>
+  </si>
+  <si>
+    <t>MARKOSE</t>
+  </si>
+  <si>
+    <t>200049268</t>
+  </si>
+  <si>
+    <t>Sohail</t>
+  </si>
+  <si>
+    <t>200187055</t>
+  </si>
+  <si>
+    <t>MAICHAEL</t>
+  </si>
+  <si>
+    <t>200456446</t>
+  </si>
+  <si>
+    <t>200546593</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>200556943</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>Room 14</t>
+  </si>
+  <si>
+    <t>200561330</t>
+  </si>
+  <si>
+    <t>De Gracia</t>
+  </si>
+  <si>
+    <t>200561977</t>
+  </si>
+  <si>
+    <t>nawaz</t>
   </si>
 </sst>
 </file>
@@ -789,7 +1087,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +1117,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -870,7 +1173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -879,6 +1182,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,7 +1383,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="10.71" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,7 +7877,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="10.71" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9643,4 +9947,757 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.5234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.37890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.3984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.12109375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>321</v>
+      </c>
+      <c r="D39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>327</v>
+      </c>
+      <c r="D42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>334</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>335</v>
+      </c>
+      <c r="D47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>336</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>339</v>
+      </c>
+      <c r="D49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" t="s">
+        <v>341</v>
+      </c>
+      <c r="D50" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>342</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>343</v>
+      </c>
+      <c r="B52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>350</v>
+      </c>
+      <c r="B58" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>